--- a/System&Memory_Exercise_Round3.xlsx
+++ b/System&Memory_Exercise_Round3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amegeed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amegeed\Desktop\sprints\AUTOSAR\AUTOSAR Memory Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EcuM" sheetId="1" r:id="rId1"/>
@@ -640,27 +640,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +909,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41"/>
@@ -959,7 +959,7 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="41"/>
@@ -970,7 +970,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="46" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="41"/>
@@ -1009,10 +1009,10 @@
     <row r="5" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="41"/>
@@ -1245,7 +1245,7 @@
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="41"/>
@@ -1292,7 +1292,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="41"/>
@@ -1316,7 +1316,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="41"/>
@@ -1340,7 +1340,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="41"/>
@@ -2490,16 +2490,16 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2520,7 +2520,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="41"/>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="41"/>
@@ -2570,7 +2570,7 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="41"/>
@@ -2581,7 +2581,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="41"/>
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3827,7 +3827,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="41"/>
@@ -3877,7 +3877,7 @@
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="41"/>
@@ -3888,7 +3888,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="41"/>
@@ -4149,7 +4149,7 @@
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="41"/>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="27" spans="1:20" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="41"/>
@@ -4607,10 +4607,10 @@
         <v>90</v>
       </c>
       <c r="N31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
@@ -5762,7 +5762,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="41"/>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="41"/>
